--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>816651.4348601892</v>
+        <v>856950.447743876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889768</v>
+        <v>337002.2430554237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8038245.454783054</v>
+        <v>8020643.07314578</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3.839869650691945</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>131.3523419578136</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -950,11 +952,11 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="V6" t="n">
-        <v>210.01624660956</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.46695056626831</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>221.1033690665143</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.3870695882588</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1387,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>213.9152309627394</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>159.5623709710774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325216</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.86617416758041</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>43.95772706122981</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>339.9939509566151</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>37.07115149839501</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -1850,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>20.26031580643166</v>
+        <v>14.44433456003297</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95831792021254</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>167.8382432632941</v>
+        <v>290.0035889091395</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.31590541686241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>323.9918595228955</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>302.8589270347349</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.305787840852878</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43.99240337009266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.65893690886244</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.2008592180674</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>270.0180256261398</v>
+        <v>28.04883337012787</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3113,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="U34" t="n">
-        <v>50.09791697323016</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>1.925119512544452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>346.7677581803488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.68674332176583</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>155.8860385675341</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>30.28046648355862</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>128.5001899129491</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>295.2947340238483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>9.693200015577853</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.66385641544537</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>280.1033070984078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.0849044383763</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.4948343740486</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C3" t="n">
-        <v>298.4948343740486</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D3" t="n">
-        <v>298.4948343740486</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="E3" t="n">
-        <v>298.4948343740486</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>151.9602764009336</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4437,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>298.4948343740486</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.4948343740486</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3248651012614</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>343.8760884571613</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>343.8760884571613</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>343.8760884571613</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X5" t="n">
-        <v>343.8760884571613</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y5" t="n">
-        <v>343.8760884571613</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.5723599112974</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V6" t="n">
-        <v>477.3326586762514</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W6" t="n">
-        <v>477.3326586762514</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X6" t="n">
-        <v>477.3326586762514</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>269.5723599112974</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.8614515073789</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8614515073789</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8614515073789</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>286.9604071117561</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613333</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>818.7624959030018</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>552.8614515073789</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>552.8614515073789</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>552.8614515073789</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>552.8614515073789</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>24.9501803568321</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>24.9501803568321</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>285.559793968982</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>546.169407581132</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>806.582471673624</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>998.5838463517226</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993074</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>678.4944708143832</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>450.2741420565881</v>
+        <v>639.5508896326994</v>
       </c>
       <c r="V9" t="n">
-        <v>450.2741420565881</v>
+        <v>639.5508896326994</v>
       </c>
       <c r="W9" t="n">
-        <v>450.2741420565881</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X9" t="n">
-        <v>242.4226418510552</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.66234308610132</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>38.68360465423046</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
-        <v>38.68360465423046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2149.375138862102</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C11" t="n">
-        <v>1780.41262192169</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5078,13 +5080,13 @@
         <v>2697.149091018221</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018221</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018221</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.974978926224</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>53.94298182036443</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641983</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L12" t="n">
-        <v>670.82192085987</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018221</v>
@@ -5145,22 +5147,22 @@
         <v>2646.935720430046</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.9284171545819</v>
+        <v>438.7118141694734</v>
       </c>
       <c r="C13" t="n">
-        <v>235.9284171545819</v>
+        <v>438.7118141694734</v>
       </c>
       <c r="D13" t="n">
-        <v>235.9284171545819</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E13" t="n">
-        <v>235.9284171545819</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F13" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G13" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I13" t="n">
         <v>99.59950625323012</v>
@@ -5212,37 +5214,37 @@
         <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.712065060056</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9284171545819</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W13" t="n">
-        <v>235.9284171545819</v>
+        <v>438.7118141694734</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9284171545819</v>
+        <v>438.7118141694734</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.9284171545819</v>
+        <v>438.7118141694734</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>945.5895825788796</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C14" t="n">
-        <v>945.5895825788796</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D14" t="n">
-        <v>945.5895825788796</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
         <v>534.603677789272</v>
@@ -5273,22 +5275,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W14" t="n">
-        <v>1319.055340839959</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X14" t="n">
-        <v>945.5895825788796</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="Y14" t="n">
-        <v>945.5895825788796</v>
+        <v>2520.971603332392</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5416,25 +5418,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>431.1223972961881</v>
       </c>
       <c r="G16" t="n">
         <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1937.315630222944</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>1568.353113282533</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>1210.087414675782</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2676.684125557181</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="T17" t="n">
-        <v>2676.684125557181</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="U17" t="n">
-        <v>2676.684125557181</v>
+        <v>2627.530164619389</v>
       </c>
       <c r="V17" t="n">
-        <v>2676.684125557181</v>
+        <v>2296.467277275819</v>
       </c>
       <c r="W17" t="n">
-        <v>2323.915470287066</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.915470287066</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y17" t="n">
-        <v>2323.915470287066</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>485.0749338020197</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>485.0749338020197</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V19" t="n">
-        <v>485.0749338020197</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W19" t="n">
-        <v>485.0749338020197</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>485.0749338020197</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1964.838184214438</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C20" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2351.43802427856</v>
+        <v>2349.187483458676</v>
       </c>
       <c r="W20" t="n">
-        <v>2351.43802427856</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="X20" t="n">
-        <v>2351.43802427856</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y20" t="n">
-        <v>2351.43802427856</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.9088977430002</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C22" t="n">
-        <v>351.9727148150933</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5917,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064343</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>702.55736257324</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1525.597764264522</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1156.63524732411</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1156.63524732411</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E23" t="n">
-        <v>770.8469947258659</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>359.8610899362583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6014,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2302.336936304455</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1912.197604328644</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6111,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U25" t="n">
-        <v>598.044640063212</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1584.314837422907</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1215.352320482495</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>857.0866218757444</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>471.2983692775002</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>60.31246448789261</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>60.31246448789261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>60.31246448789261</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6263,13 +6265,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1970.914677487028</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6309,7 +6311,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.37975290126613</v>
+        <v>65.73979454966857</v>
       </c>
       <c r="C28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>98.37975290126613</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W28" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X28" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.0282177315058</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1536.177557778964</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>1536.177557778964</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.911859172214</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,7 +6463,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6494,19 +6496,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2686.382488079978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2686.382488079978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2686.382488079978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2312.916729818898</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1922.777397843086</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6540,31 +6542,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073963</v>
@@ -6579,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>325.6879402326643</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C31" t="n">
-        <v>325.6879402326643</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D31" t="n">
-        <v>175.5713008203286</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>167.2771830507355</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>167.2771830507355</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6625,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3364050629041</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2268.654643287636</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C32" t="n">
-        <v>1899.692126347224</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D32" t="n">
-        <v>1541.426427740474</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="E32" t="n">
-        <v>1155.638175142229</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="F32" t="n">
-        <v>744.6522703526218</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="G32" t="n">
-        <v>326.6884622508087</v>
+        <v>235.7411127445959</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6725,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y32" t="n">
-        <v>2268.654643287636</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6777,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6816,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2255.552480504987</v>
+        <v>563.9091713093267</v>
       </c>
       <c r="U34" t="n">
-        <v>2204.94852396637</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V34" t="n">
-        <v>2204.94852396637</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.94852396637</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.94852396637</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.425425970681</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C35" t="n">
-        <v>951.4629090302697</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D35" t="n">
-        <v>593.1972104235191</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E35" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W35" t="n">
-        <v>2057.295728843236</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X35" t="n">
-        <v>2057.295728843236</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y35" t="n">
-        <v>1707.025266034803</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R37" t="n">
-        <v>2580.169804880162</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S37" t="n">
-        <v>2580.169804880162</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T37" t="n">
-        <v>2352.861617548764</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U37" t="n">
-        <v>2352.861617548764</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V37" t="n">
-        <v>2352.861617548764</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2352.861617548764</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1017.943709336666</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>648.9811923962548</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>618.3948626148824</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>618.3948626148824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990285</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V38" t="n">
-        <v>2147.451536646714</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>1794.6828813766</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>1794.6828813766</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1404.543549400788</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7227,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7290,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7354,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>450.1841540113767</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>450.1841540113767</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U40" t="n">
-        <v>450.1841540113767</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V40" t="n">
-        <v>450.1841540113767</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W40" t="n">
-        <v>450.1841540113767</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X40" t="n">
-        <v>450.1841540113767</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y40" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1139.146815977587</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>770.1842990371758</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>471.9067899221776</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278601</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.885988017521</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1525.746656041709</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7485,46 +7487,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7588,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="T43" t="n">
-        <v>667.8624625746712</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="U43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y43" t="n">
-        <v>667.8624625746712</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
         <v>1208.982837814967</v>
@@ -7634,31 +7636,31 @@
         <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287635</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7737,7 +7739,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.992621888549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2489.992621888549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2339.875982476213</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2489.992621888549</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>127.806478742992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>188.5967064988754</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719073</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747081</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504498</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11385,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>317.6203761059298</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22632,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>153.805210804709</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.991175205397013</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22759,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22799,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>142.0904719091984</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22838,10 +22840,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22881,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="V6" t="n">
-        <v>22.78434053986524</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23027,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.6883361205952</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>19.47466811430422</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.066233083599</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4.838013014460557</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>11.81540091395198</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>135.3257377546736</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>226.6755676849762</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.7492988506319</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23434,7 +23436,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>338.7761146022507</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>9.247017760797917</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>130.2386507606559</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.1553970025399</v>
+        <v>159.9713782489385</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23789,7 +23791,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23908,7 +23910,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23935,19 +23937,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>131.0767875378717</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>89.56002855569153</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -24026,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>159.9140152068408</v>
+        <v>37.74866956099538</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.2687479352324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>110.9252429860601</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24254,10 +24256,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>145.6255284040084</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>155.5679764966168</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>123.3173988889583</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24649,7 +24651,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,7 +24736,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>240.5652305994269</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>26.02192683660465</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>22.76476257427088</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>53.90474713821737</v>
+        <v>295.8739393942293</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25093,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>62.45749068994758</v>
       </c>
       <c r="U34" t="n">
-        <v>236.1839572687476</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>52.55328306226721</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>39.47018047570475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R37" t="n">
-        <v>59.97844865839203</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744436</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>324.4025751371244</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25409,7 +25411,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>27.53450764830093</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>83.64534903706976</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>59.38830759683469</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>27.53450764830093</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>19.42954993933645</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>165.3712490426389</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>85.16958467259974</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.49974891371849</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467732.0967585469</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770591</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26329,7 +26331,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26344,16 +26346,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="N2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245779.718513394</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.1740429958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8577.315374774351</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361481</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361481</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361485</v>
@@ -26442,22 +26444,22 @@
         <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340945</v>
@@ -26482,13 +26484,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26500,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638.76028698068</v>
+        <v>3638.760286980694</v>
       </c>
       <c r="C6" t="n">
-        <v>84408.19181852844</v>
+        <v>84408.19181852843</v>
       </c>
       <c r="D6" t="n">
-        <v>62013.81764297732</v>
+        <v>84408.19181852846</v>
       </c>
       <c r="E6" t="n">
-        <v>-220543.2152679512</v>
+        <v>-245668.9516273729</v>
       </c>
       <c r="F6" t="n">
+        <v>187177.2224156228</v>
+      </c>
+      <c r="G6" t="n">
         <v>187177.222415623</v>
       </c>
-      <c r="G6" t="n">
-        <v>187177.2224156229</v>
-      </c>
       <c r="H6" t="n">
-        <v>187177.2224156229</v>
+        <v>187177.2224156231</v>
       </c>
       <c r="I6" t="n">
-        <v>187177.2224156229</v>
+        <v>187177.222415623</v>
       </c>
       <c r="J6" t="n">
         <v>124117.2798165167</v>
@@ -26549,19 +26551,19 @@
         <v>187177.2224156229</v>
       </c>
       <c r="L6" t="n">
-        <v>181551.5801870973</v>
+        <v>187177.222415623</v>
       </c>
       <c r="M6" t="n">
-        <v>84743.10472498786</v>
+        <v>79203.86174156491</v>
       </c>
       <c r="N6" t="n">
-        <v>187177.2224156231</v>
+        <v>187177.222415623</v>
       </c>
       <c r="O6" t="n">
         <v>187177.222415623</v>
       </c>
       <c r="P6" t="n">
-        <v>187177.222415623</v>
+        <v>187177.2224156229</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26762,13 +26764,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26793,22 +26795,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545554</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302971</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,7 +31758,7 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727435</v>
@@ -31771,10 +31773,10 @@
         <v>266.6471645405366</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954665</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044136</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T11" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H12" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649101</v>
@@ -31856,13 +31858,13 @@
         <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131472</v>
@@ -31871,7 +31873,7 @@
         <v>3.274966296372663</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813575</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246923</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666593</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701162</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,43 +33654,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34781,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.93362571206441</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492235</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898688</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624584</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713856</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35969,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L20" t="n">
         <v>421.5361394435301</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37476,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435295</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
         <v>485.8144648060965</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
